--- a/SCOPF/E1_SystemStates.xlsx
+++ b/SCOPF/E1_SystemStates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pm.deoliveiradejes/OneDrive - Universidad de Los Andes/MASEP-OPE/SCOPF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VaioPC\Dropbox (Uniandes)\SCOPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0288B41-4323-104D-BC76-0C25FEEA6175}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808C9D4D-D719-4F58-A944-96994AEC951B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36060" yWindow="1760" windowWidth="34460" windowHeight="19200" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="33" r:id="rId1"/>
@@ -428,6 +428,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1397,7 +1405,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1995,6 +2003,15 @@
     <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2016,15 +2033,6 @@
     <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2739,8 +2747,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11157555" y="3365500"/>
-          <a:ext cx="374045" cy="361160"/>
+          <a:off x="9830405" y="3441700"/>
+          <a:ext cx="259745" cy="361160"/>
           <a:chOff x="513989" y="2399805"/>
           <a:chExt cx="713232" cy="713205"/>
         </a:xfrm>
@@ -3236,7 +3244,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13246048" y="3379005"/>
+          <a:off x="11585523" y="3455205"/>
           <a:ext cx="422177" cy="363265"/>
           <a:chOff x="513989" y="2399805"/>
           <a:chExt cx="713232" cy="713205"/>
@@ -5316,8 +5324,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10973405" y="3160485"/>
-          <a:ext cx="462184" cy="420125"/>
+          <a:off x="9646255" y="3236685"/>
+          <a:ext cx="395509" cy="420125"/>
           <a:chOff x="513989" y="2399805"/>
           <a:chExt cx="713232" cy="713205"/>
         </a:xfrm>
@@ -5813,7 +5821,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13411148" y="3417105"/>
+          <a:off x="11731573" y="3493305"/>
           <a:ext cx="422177" cy="363265"/>
           <a:chOff x="513989" y="2399805"/>
           <a:chExt cx="713232" cy="713205"/>
@@ -7722,8 +7730,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10973405" y="3160485"/>
-          <a:ext cx="509809" cy="420125"/>
+          <a:off x="9646255" y="3236685"/>
+          <a:ext cx="395509" cy="420125"/>
           <a:chOff x="513989" y="2399805"/>
           <a:chExt cx="713232" cy="713205"/>
         </a:xfrm>
@@ -8219,7 +8227,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13411148" y="3417105"/>
+          <a:off x="11731573" y="3493305"/>
           <a:ext cx="422177" cy="363265"/>
           <a:chOff x="513989" y="2399805"/>
           <a:chExt cx="713232" cy="713205"/>
@@ -10253,8 +10261,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10973405" y="3160485"/>
-          <a:ext cx="462184" cy="420125"/>
+          <a:off x="9650488" y="3264202"/>
+          <a:ext cx="395509" cy="420125"/>
           <a:chOff x="513989" y="2399805"/>
           <a:chExt cx="713232" cy="713205"/>
         </a:xfrm>
@@ -10750,7 +10758,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13411148" y="3417105"/>
+          <a:off x="11741098" y="3520822"/>
           <a:ext cx="422177" cy="363265"/>
           <a:chOff x="513989" y="2399805"/>
           <a:chExt cx="713232" cy="713205"/>
@@ -12293,23 +12301,23 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1"/>
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="18.75">
       <c r="E2" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="18.75">
       <c r="E3" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:13" s="11" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="2" customFormat="1"/>
+    <row r="5" spans="1:13" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
+    <row r="6" spans="1:13" s="2" customFormat="1"/>
+    <row r="7" spans="1:13" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -12317,19 +12325,19 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="2" customFormat="1"/>
+    <row r="9" spans="1:13" s="2" customFormat="1">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="2" customFormat="1">
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="19.5">
       <c r="B11" s="13" t="s">
         <v>41</v>
       </c>
@@ -12354,12 +12362,12 @@
       <c r="I11" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="L11" s="102" t="s">
+      <c r="L11" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="102"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="M11" s="107"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="18.75">
       <c r="B12" s="14"/>
       <c r="C12" s="13" t="s">
         <v>47</v>
@@ -12389,7 +12397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="2" customFormat="1">
       <c r="B13" s="12">
         <v>1</v>
       </c>
@@ -12421,7 +12429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="2" customFormat="1">
       <c r="B14" s="15">
         <v>2</v>
       </c>
@@ -12453,7 +12461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="2" customFormat="1">
       <c r="L15" s="21" t="s">
         <v>17</v>
       </c>
@@ -12461,7 +12469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="2" customFormat="1">
       <c r="B16" s="2" t="s">
         <v>51</v>
       </c>
@@ -12472,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="2" customFormat="1">
       <c r="F17" s="2" t="s">
         <v>153</v>
       </c>
@@ -12484,7 +12492,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="2" customFormat="1">
       <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
@@ -12510,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="2" customFormat="1">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -12536,7 +12544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="2" customFormat="1">
       <c r="F20" s="2">
         <v>13</v>
       </c>
@@ -12553,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="2" customFormat="1">
       <c r="L21" s="21" t="s">
         <v>13</v>
       </c>
@@ -12561,7 +12569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="2" customFormat="1">
       <c r="F22" s="2" t="s">
         <v>154</v>
       </c>
@@ -12578,7 +12586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="2" customFormat="1">
       <c r="F23" s="2" t="s">
         <v>155</v>
       </c>
@@ -12589,21 +12597,21 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="2" customFormat="1"/>
+    <row r="25" spans="2:13" s="2" customFormat="1"/>
+    <row r="26" spans="2:13" s="2" customFormat="1">
       <c r="G26" s="2">
         <f>250/200</f>
         <v>1.25</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:13" s="2" customFormat="1"/>
+    <row r="28" spans="2:13" s="2" customFormat="1"/>
+    <row r="29" spans="2:13" s="2" customFormat="1"/>
+    <row r="30" spans="2:13" s="2" customFormat="1"/>
+    <row r="31" spans="2:13" s="2" customFormat="1"/>
+    <row r="32" spans="2:13" s="2" customFormat="1"/>
+    <row r="33" s="2" customFormat="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="L11:M11"/>
@@ -12621,37 +12629,37 @@
       <selection activeCell="G22" sqref="G20:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
       <c r="A6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" s="65"/>
       <c r="C7" s="65"/>
       <c r="D7" s="65" t="s">
@@ -12661,7 +12669,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
       <c r="B8" s="66" t="s">
         <v>70</v>
       </c>
@@ -12675,7 +12683,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" s="35" t="s">
         <v>79</v>
       </c>
@@ -12689,7 +12697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="B10" s="35" t="s">
         <v>81</v>
       </c>
@@ -12703,7 +12711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="B11" s="35" t="s">
         <v>83</v>
       </c>
@@ -12717,7 +12725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="B12" s="35" t="s">
         <v>85</v>
       </c>
@@ -12731,7 +12739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="B13" s="35" t="s">
         <v>87</v>
       </c>
@@ -12745,7 +12753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="B14" s="35" t="s">
         <v>89</v>
       </c>
@@ -12759,7 +12767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1">
       <c r="B15" s="36" t="s">
         <v>91</v>
       </c>
@@ -12773,12 +12781,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1">
       <c r="A17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
       <c r="D18" s="65" t="s">
@@ -12791,7 +12799,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1">
       <c r="B19" s="66" t="s">
         <v>70</v>
       </c>
@@ -12808,7 +12816,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="B20" s="35" t="s">
         <v>93</v>
       </c>
@@ -12830,7 +12838,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="B21" s="35" t="s">
         <v>95</v>
       </c>
@@ -12852,7 +12860,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="B22" s="35" t="s">
         <v>97</v>
       </c>
@@ -12874,7 +12882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="B23" s="35" t="s">
         <v>99</v>
       </c>
@@ -12893,7 +12901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="B24" s="35" t="s">
         <v>101</v>
       </c>
@@ -12912,7 +12920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="B25" s="35" t="s">
         <v>103</v>
       </c>
@@ -12931,7 +12939,7 @@
         <v>-3.4152070753655651E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1">
       <c r="B26" s="36" t="s">
         <v>136</v>
       </c>
@@ -12963,36 +12971,36 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
       <c r="A6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" s="78"/>
       <c r="C7" s="78"/>
       <c r="D7" s="78" t="s">
@@ -13002,7 +13010,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
       <c r="B8" s="79" t="s">
         <v>70</v>
       </c>
@@ -13016,7 +13024,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" s="35" t="s">
         <v>79</v>
       </c>
@@ -13030,7 +13038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="B10" s="35" t="s">
         <v>81</v>
       </c>
@@ -13044,7 +13052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="B11" s="35" t="s">
         <v>83</v>
       </c>
@@ -13058,7 +13066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="B12" s="35" t="s">
         <v>85</v>
       </c>
@@ -13072,7 +13080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="B13" s="35" t="s">
         <v>87</v>
       </c>
@@ -13086,7 +13094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="B14" s="35" t="s">
         <v>89</v>
       </c>
@@ -13100,7 +13108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1">
       <c r="B15" s="36" t="s">
         <v>91</v>
       </c>
@@ -13114,12 +13122,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
       <c r="A17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="B18" s="78"/>
       <c r="C18" s="78"/>
       <c r="D18" s="78" t="s">
@@ -13129,7 +13137,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1">
       <c r="B19" s="79" t="s">
         <v>70</v>
       </c>
@@ -13143,7 +13151,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="B20" s="35" t="s">
         <v>93</v>
       </c>
@@ -13157,7 +13165,7 @@
         <v>2000.0000000333046</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="B21" s="35" t="s">
         <v>95</v>
       </c>
@@ -13171,7 +13179,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="B22" s="35" t="s">
         <v>97</v>
       </c>
@@ -13185,7 +13193,7 @@
         <v>2000.0000003165942</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="B23" s="35" t="s">
         <v>99</v>
       </c>
@@ -13199,7 +13207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="B24" s="35" t="s">
         <v>101</v>
       </c>
@@ -13213,7 +13221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="B25" s="35" t="s">
         <v>103</v>
       </c>
@@ -13227,7 +13235,7 @@
         <v>5.9833195213444654E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="B26" s="35" t="s">
         <v>157</v>
       </c>
@@ -13241,7 +13249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="B27" s="35" t="s">
         <v>159</v>
       </c>
@@ -13255,7 +13263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="B28" s="35" t="s">
         <v>157</v>
       </c>
@@ -13269,7 +13277,7 @@
         <v>9.999999999833479</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="B29" s="35" t="s">
         <v>159</v>
       </c>
@@ -13283,7 +13291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="B30" s="35" t="s">
         <v>161</v>
       </c>
@@ -13297,7 +13305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="B31" s="35" t="s">
         <v>163</v>
       </c>
@@ -13311,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="B32" s="35" t="s">
         <v>161</v>
       </c>
@@ -13325,7 +13333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5">
       <c r="B33" s="35" t="s">
         <v>163</v>
       </c>
@@ -13339,7 +13347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5">
       <c r="B34" s="35" t="s">
         <v>165</v>
       </c>
@@ -13353,7 +13361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5">
       <c r="B35" s="35" t="s">
         <v>136</v>
       </c>
@@ -13367,7 +13375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" ht="15.75" thickBot="1">
       <c r="B36" s="36" t="s">
         <v>166</v>
       </c>
@@ -13395,46 +13403,46 @@
       <selection pane="bottomLeft" activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1"/>
-    <col min="11" max="12" width="8.83203125" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
-    <col min="14" max="14" width="3.1640625" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" customWidth="1"/>
-    <col min="16" max="16" width="5.1640625" customWidth="1"/>
-    <col min="17" max="17" width="1.83203125" customWidth="1"/>
-    <col min="18" max="18" width="4.5" customWidth="1"/>
-    <col min="19" max="20" width="1.6640625" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="1.1640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="4.6640625" customWidth="1"/>
-    <col min="26" max="26" width="6.33203125" customWidth="1"/>
-    <col min="27" max="27" width="7.5" customWidth="1"/>
-    <col min="28" max="28" width="8.1640625" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" customWidth="1"/>
+    <col min="11" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" customWidth="1"/>
+    <col min="17" max="17" width="1.85546875" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="20" width="1.7109375" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="1.140625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="4.7109375" customWidth="1"/>
+    <col min="26" max="26" width="6.28515625" customWidth="1"/>
+    <col min="27" max="27" width="7.42578125" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:41" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" s="2" customFormat="1"/>
+    <row r="2" spans="1:41" s="2" customFormat="1" ht="18.75">
       <c r="E2" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:41" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" s="2" customFormat="1" ht="18.75">
       <c r="E3" s="70" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:41" s="11" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" s="2" customFormat="1"/>
+    <row r="5" spans="1:41" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
+    <row r="6" spans="1:41" s="2" customFormat="1"/>
+    <row r="7" spans="1:41" s="2" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -13445,16 +13453,16 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
       <c r="W7" s="12" t="s">
         <v>178</v>
       </c>
@@ -13463,7 +13471,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" s="2" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -13507,25 +13515,25 @@
       <c r="R8" s="39">
         <v>0.1</v>
       </c>
-      <c r="W8" s="109">
+      <c r="W8" s="102">
         <f>100^2/200</f>
         <v>50</v>
       </c>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="109">
+      <c r="X8" s="102"/>
+      <c r="Y8" s="102">
         <f>W8/0.4</f>
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="102" t="s">
+    <row r="9" spans="1:41" s="2" customFormat="1">
+      <c r="A9" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="106" t="s">
+      <c r="B9" s="107"/>
+      <c r="C9" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="106"/>
+      <c r="D9" s="111"/>
       <c r="F9" s="17" t="s">
         <v>30</v>
       </c>
@@ -13569,17 +13577,17 @@
       <c r="R9" s="39">
         <v>0.1</v>
       </c>
-      <c r="W9" s="109">
+      <c r="W9" s="102">
         <f t="shared" ref="W9:W10" si="0">100^2/200</f>
         <v>50</v>
       </c>
-      <c r="X9" s="109"/>
-      <c r="Y9" s="109">
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102">
         <f t="shared" ref="Y9:Y10" si="1">W9/0.4</f>
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" s="2" customFormat="1">
       <c r="A10" s="21" t="s">
         <v>33</v>
       </c>
@@ -13632,17 +13640,17 @@
       <c r="R10" s="39">
         <v>0.1</v>
       </c>
-      <c r="W10" s="109">
+      <c r="W10" s="102">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="X10" s="109"/>
-      <c r="Y10" s="109">
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41">
       <c r="A11" s="21" t="s">
         <v>31</v>
       </c>
@@ -13698,7 +13706,7 @@
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41">
       <c r="A12" s="21" t="s">
         <v>34</v>
       </c>
@@ -13712,10 +13720,10 @@
       <c r="D12" s="28">
         <v>-4.3323904481940352E-2</v>
       </c>
-      <c r="E12" s="104" t="s">
+      <c r="E12" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="104"/>
+      <c r="F12" s="109"/>
       <c r="G12" s="75" t="s">
         <v>169</v>
       </c>
@@ -13756,7 +13764,7 @@
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
     </row>
-    <row r="13" spans="1:41" ht="17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" ht="18.75">
       <c r="A13" s="21" t="s">
         <v>17</v>
       </c>
@@ -13821,7 +13829,7 @@
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
     </row>
-    <row r="14" spans="1:41" ht="17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" ht="18.75">
       <c r="A14" s="21" t="s">
         <v>18</v>
       </c>
@@ -13886,7 +13894,7 @@
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
     </row>
-    <row r="15" spans="1:41" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" ht="18.75">
       <c r="A15" s="21" t="s">
         <v>19</v>
       </c>
@@ -13953,7 +13961,7 @@
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
     </row>
-    <row r="16" spans="1:41" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" ht="18.75">
       <c r="A16" s="21" t="s">
         <v>20</v>
       </c>
@@ -14023,7 +14031,7 @@
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
     </row>
-    <row r="17" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="15" customHeight="1">
       <c r="A17" s="21" t="s">
         <v>21</v>
       </c>
@@ -14078,7 +14086,7 @@
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41">
       <c r="A18" s="21" t="s">
         <v>22</v>
       </c>
@@ -14110,7 +14118,7 @@
       <c r="Y18" s="82"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="112">
+      <c r="AB18" s="105">
         <f>_PG2*Sbase</f>
         <v>150.00000000000009</v>
       </c>
@@ -14130,7 +14138,7 @@
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41">
       <c r="A19" s="21" t="s">
         <v>13</v>
       </c>
@@ -14161,7 +14169,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="113">
+      <c r="AB19" s="106">
         <f>_QG2*Sbase</f>
         <v>70.679012840188022</v>
       </c>
@@ -14181,7 +14189,7 @@
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41">
       <c r="A20" s="21" t="s">
         <v>16</v>
       </c>
@@ -14209,7 +14217,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="111">
+      <c r="W20" s="104">
         <f>_PG1*Sbase</f>
         <v>50</v>
       </c>
@@ -14234,7 +14242,7 @@
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
     </row>
-    <row r="21" spans="1:41" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -14246,7 +14254,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="W21" s="111">
+      <c r="W21" s="104">
         <f>_QG1*Sbase</f>
         <v>68.992718873035827</v>
       </c>
@@ -14257,14 +14265,14 @@
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
     </row>
-    <row r="22" spans="1:41" s="7" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="107" t="s">
+    <row r="22" spans="1:41" s="7" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A22" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
@@ -14272,7 +14280,7 @@
       <c r="Q22" s="2"/>
       <c r="W22" s="37"/>
       <c r="Y22" s="2"/>
-      <c r="AA22" s="112">
+      <c r="AA22" s="105">
         <f>H47</f>
         <v>116.27651823305179</v>
       </c>
@@ -14292,7 +14300,7 @@
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
     </row>
-    <row r="23" spans="1:41" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>149</v>
       </c>
@@ -14315,7 +14323,7 @@
       <c r="K23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="W23" s="111">
+      <c r="W23" s="104">
         <f>H46</f>
         <v>83.723482107266975</v>
       </c>
@@ -14323,7 +14331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:41" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A24" s="17">
         <v>0</v>
       </c>
@@ -14360,7 +14368,7 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" spans="1:41" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A25" s="17">
         <v>0</v>
       </c>
@@ -14396,7 +14404,7 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="Q25" s="29"/>
-      <c r="W25" s="110">
+      <c r="W25" s="103">
         <f>_V3</f>
         <v>0.96655275872198165</v>
       </c>
@@ -14404,7 +14412,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:41" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A26" s="17"/>
       <c r="F26" s="6"/>
       <c r="G26" s="59" t="s">
@@ -14428,7 +14436,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:41" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A27" s="43" t="s">
         <v>61</v>
       </c>
@@ -14454,7 +14462,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:41" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>115</v>
       </c>
@@ -14475,7 +14483,7 @@
       <c r="Z28" s="80"/>
       <c r="AA28" s="80"/>
     </row>
-    <row r="29" spans="1:41" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="B29" s="30" t="s">
         <v>62</v>
       </c>
@@ -14503,7 +14511,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="32"/>
     </row>
-    <row r="30" spans="1:41" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="B30" s="30" t="s">
         <v>63</v>
       </c>
@@ -14521,7 +14529,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="32"/>
     </row>
-    <row r="31" spans="1:41" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="B31" s="30" t="s">
         <v>64</v>
       </c>
@@ -14539,7 +14547,7 @@
       <c r="M31" s="32"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:41" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="B32" s="30" t="s">
         <v>65</v>
       </c>
@@ -14558,7 +14566,7 @@
       <c r="N32" s="7"/>
       <c r="P32" s="8"/>
     </row>
-    <row r="33" spans="1:27" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="B33" s="30" t="s">
         <v>66</v>
       </c>
@@ -14581,7 +14589,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="1:27" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A34"/>
       <c r="B34" s="30" t="s">
         <v>67</v>
@@ -14605,7 +14613,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" s="2" customFormat="1">
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -14616,7 +14624,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" s="2" customFormat="1">
       <c r="A36" s="47"/>
       <c r="B36" s="47" t="s">
         <v>119</v>
@@ -14640,7 +14648,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
         <v>117</v>
       </c>
@@ -14675,7 +14683,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" s="2" customFormat="1">
       <c r="A38" s="47" t="s">
         <v>118</v>
       </c>
@@ -14700,7 +14708,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" s="2" customFormat="1">
       <c r="A39" s="2" t="s">
         <v>120</v>
       </c>
@@ -14739,7 +14747,7 @@
       <c r="O39" s="64"/>
       <c r="P39" s="64"/>
     </row>
-    <row r="40" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" s="2" customFormat="1">
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -14757,7 +14765,7 @@
       <c r="Q40" s="32"/>
       <c r="R40" s="32"/>
     </row>
-    <row r="41" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" s="2" customFormat="1">
       <c r="A41" s="7" t="s">
         <v>57</v>
       </c>
@@ -14768,10 +14776,10 @@
       <c r="F41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="103"/>
-    </row>
-    <row r="42" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K41" s="108"/>
+      <c r="L41" s="108"/>
+    </row>
+    <row r="42" spans="1:27" s="2" customFormat="1">
       <c r="A42" s="7" t="s">
         <v>58</v>
       </c>
@@ -14787,7 +14795,7 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" s="2" customFormat="1">
       <c r="A43" s="7"/>
       <c r="B43" s="24" t="s">
         <v>3</v>
@@ -14814,10 +14822,10 @@
       <c r="J43" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="103" t="s">
+      <c r="L43" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="M43" s="103"/>
+      <c r="M43" s="108"/>
       <c r="Y43" s="50" t="s">
         <v>9</v>
       </c>
@@ -14826,7 +14834,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" s="2" customFormat="1">
       <c r="A44" s="47"/>
       <c r="B44" s="15" t="s">
         <v>126</v>
@@ -14867,7 +14875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" s="2" customFormat="1" ht="18.75">
       <c r="A45" s="24">
         <v>12</v>
       </c>
@@ -14925,7 +14933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" s="2" customFormat="1" ht="18.75">
       <c r="A46" s="24">
         <v>13</v>
       </c>
@@ -14983,7 +14991,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="2" customFormat="1" ht="18.75">
       <c r="A47" s="15">
         <v>23</v>
       </c>
@@ -15041,7 +15049,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" s="2" customFormat="1">
       <c r="A48" s="7"/>
       <c r="B48" s="54"/>
       <c r="C48" s="54"/>
@@ -15061,7 +15069,7 @@
         <v>7.835863983813951E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" s="2" customFormat="1">
       <c r="A49" s="7"/>
       <c r="B49" s="54"/>
       <c r="C49" s="7"/>
@@ -15081,7 +15089,7 @@
         <v>15.671731713223846</v>
       </c>
     </row>
-    <row r="50" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" s="2" customFormat="1">
       <c r="C50" s="37"/>
       <c r="L50" s="12" t="s">
         <v>50</v>
@@ -15090,12 +15098,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" s="2" customFormat="1">
       <c r="A51" s="38" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" s="2" customFormat="1">
       <c r="A52" s="2" t="s">
         <v>141</v>
       </c>
@@ -15106,7 +15114,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30">
       <c r="A53" s="2" t="s">
         <v>141</v>
       </c>
@@ -15154,7 +15162,7 @@
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30">
       <c r="A54" s="2" t="s">
         <v>142</v>
       </c>
@@ -15193,7 +15201,7 @@
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -15230,7 +15238,7 @@
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -15262,7 +15270,7 @@
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -15294,7 +15302,7 @@
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -15326,7 +15334,7 @@
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -15358,7 +15366,7 @@
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -15390,7 +15398,7 @@
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -15422,7 +15430,7 @@
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -15454,7 +15462,7 @@
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -15486,7 +15494,7 @@
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -15518,7 +15526,7 @@
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -15550,7 +15558,7 @@
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -15582,7 +15590,7 @@
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -15614,7 +15622,7 @@
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -15646,7 +15654,7 @@
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -15678,7 +15686,7 @@
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -15710,7 +15718,7 @@
       <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -15742,7 +15750,7 @@
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -15774,7 +15782,7 @@
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -15806,7 +15814,7 @@
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -15838,7 +15846,7 @@
       <c r="AC74" s="2"/>
       <c r="AD74" s="2"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -15870,7 +15878,7 @@
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -15902,7 +15910,7 @@
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -15934,7 +15942,7 @@
       <c r="AC77" s="2"/>
       <c r="AD77" s="2"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -15966,7 +15974,7 @@
       <c r="AC78" s="2"/>
       <c r="AD78" s="2"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -15998,7 +16006,7 @@
       <c r="AC79" s="2"/>
       <c r="AD79" s="2"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -16030,7 +16038,7 @@
       <c r="AC80" s="2"/>
       <c r="AD80" s="2"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -16062,7 +16070,7 @@
       <c r="AC81" s="2"/>
       <c r="AD81" s="2"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -16094,7 +16102,7 @@
       <c r="AC82" s="2"/>
       <c r="AD82" s="2"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -16126,7 +16134,7 @@
       <c r="AC83" s="2"/>
       <c r="AD83" s="2"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -16158,7 +16166,7 @@
       <c r="AC84" s="2"/>
       <c r="AD84" s="2"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -16190,7 +16198,7 @@
       <c r="AC85" s="2"/>
       <c r="AD85" s="2"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -16222,7 +16230,7 @@
       <c r="AC86" s="2"/>
       <c r="AD86" s="2"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -16254,7 +16262,7 @@
       <c r="AC87" s="2"/>
       <c r="AD87" s="2"/>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -16286,7 +16294,7 @@
       <c r="AC88" s="2"/>
       <c r="AD88" s="2"/>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -16318,7 +16326,7 @@
       <c r="AC89" s="2"/>
       <c r="AD89" s="2"/>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -16350,7 +16358,7 @@
       <c r="AC90" s="2"/>
       <c r="AD90" s="2"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -16382,7 +16390,7 @@
       <c r="AC91" s="2"/>
       <c r="AD91" s="2"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -16414,7 +16422,7 @@
       <c r="AC92" s="2"/>
       <c r="AD92" s="2"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -16446,7 +16454,7 @@
       <c r="AC93" s="2"/>
       <c r="AD93" s="2"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -16478,7 +16486,7 @@
       <c r="AC94" s="2"/>
       <c r="AD94" s="2"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -16510,7 +16518,7 @@
       <c r="AC95" s="2"/>
       <c r="AD95" s="2"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -16542,7 +16550,7 @@
       <c r="AC96" s="2"/>
       <c r="AD96" s="2"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -16574,7 +16582,7 @@
       <c r="AC97" s="2"/>
       <c r="AD97" s="2"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -16606,7 +16614,7 @@
       <c r="AC98" s="2"/>
       <c r="AD98" s="2"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -16638,7 +16646,7 @@
       <c r="AC99" s="2"/>
       <c r="AD99" s="2"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -16670,7 +16678,7 @@
       <c r="AC100" s="2"/>
       <c r="AD100" s="2"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -16702,7 +16710,7 @@
       <c r="AC101" s="2"/>
       <c r="AD101" s="2"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -16734,7 +16742,7 @@
       <c r="AC102" s="2"/>
       <c r="AD102" s="2"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -16766,7 +16774,7 @@
       <c r="AC103" s="2"/>
       <c r="AD103" s="2"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -16798,7 +16806,7 @@
       <c r="AC104" s="2"/>
       <c r="AD104" s="2"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -16830,7 +16838,7 @@
       <c r="AC105" s="2"/>
       <c r="AD105" s="2"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -16862,7 +16870,7 @@
       <c r="AC106" s="2"/>
       <c r="AD106" s="2"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -16894,7 +16902,7 @@
       <c r="AC107" s="2"/>
       <c r="AD107" s="2"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -16926,7 +16934,7 @@
       <c r="AC108" s="2"/>
       <c r="AD108" s="2"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -16958,7 +16966,7 @@
       <c r="AC109" s="2"/>
       <c r="AD109" s="2"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -16990,7 +16998,7 @@
       <c r="AC110" s="2"/>
       <c r="AD110" s="2"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -17022,7 +17030,7 @@
       <c r="AC111" s="2"/>
       <c r="AD111" s="2"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -17054,7 +17062,7 @@
       <c r="AC112" s="2"/>
       <c r="AD112" s="2"/>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -17086,7 +17094,7 @@
       <c r="AC113" s="2"/>
       <c r="AD113" s="2"/>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -17118,7 +17126,7 @@
       <c r="AC114" s="2"/>
       <c r="AD114" s="2"/>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -17150,7 +17158,7 @@
       <c r="AC115" s="2"/>
       <c r="AD115" s="2"/>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -17182,7 +17190,7 @@
       <c r="AC116" s="2"/>
       <c r="AD116" s="2"/>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -17214,7 +17222,7 @@
       <c r="AC117" s="2"/>
       <c r="AD117" s="2"/>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -17246,7 +17254,7 @@
       <c r="AC118" s="2"/>
       <c r="AD118" s="2"/>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -17278,7 +17286,7 @@
       <c r="AC119" s="2"/>
       <c r="AD119" s="2"/>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -17310,7 +17318,7 @@
       <c r="AC120" s="2"/>
       <c r="AD120" s="2"/>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -17342,7 +17350,7 @@
       <c r="AC121" s="2"/>
       <c r="AD121" s="2"/>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -17374,7 +17382,7 @@
       <c r="AC122" s="2"/>
       <c r="AD122" s="2"/>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -17406,7 +17414,7 @@
       <c r="AC123" s="2"/>
       <c r="AD123" s="2"/>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -17438,7 +17446,7 @@
       <c r="AC124" s="2"/>
       <c r="AD124" s="2"/>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -17470,7 +17478,7 @@
       <c r="AC125" s="2"/>
       <c r="AD125" s="2"/>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -17502,7 +17510,7 @@
       <c r="AC126" s="2"/>
       <c r="AD126" s="2"/>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -17534,7 +17542,7 @@
       <c r="AC127" s="2"/>
       <c r="AD127" s="2"/>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -17566,7 +17574,7 @@
       <c r="AC128" s="2"/>
       <c r="AD128" s="2"/>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -17598,7 +17606,7 @@
       <c r="AC129" s="2"/>
       <c r="AD129" s="2"/>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -17630,7 +17638,7 @@
       <c r="AC130" s="2"/>
       <c r="AD130" s="2"/>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -17662,7 +17670,7 @@
       <c r="AC131" s="2"/>
       <c r="AD131" s="2"/>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -17694,7 +17702,7 @@
       <c r="AC132" s="2"/>
       <c r="AD132" s="2"/>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -17726,7 +17734,7 @@
       <c r="AC133" s="2"/>
       <c r="AD133" s="2"/>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -17758,7 +17766,7 @@
       <c r="AC134" s="2"/>
       <c r="AD134" s="2"/>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -17790,7 +17798,7 @@
       <c r="AC135" s="2"/>
       <c r="AD135" s="2"/>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -17822,7 +17830,7 @@
       <c r="AC136" s="2"/>
       <c r="AD136" s="2"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -17854,7 +17862,7 @@
       <c r="AC137" s="2"/>
       <c r="AD137" s="2"/>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -17886,7 +17894,7 @@
       <c r="AC138" s="2"/>
       <c r="AD138" s="2"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -17918,7 +17926,7 @@
       <c r="AC139" s="2"/>
       <c r="AD139" s="2"/>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -17981,47 +17989,47 @@
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1"/>
-    <col min="11" max="12" width="8.83203125" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
-    <col min="14" max="14" width="3.1640625" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" customWidth="1"/>
-    <col min="16" max="16" width="5.1640625" customWidth="1"/>
-    <col min="17" max="17" width="1.83203125" customWidth="1"/>
-    <col min="18" max="18" width="4.5" customWidth="1"/>
-    <col min="19" max="20" width="1.6640625" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="1.1640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" customWidth="1"/>
+    <col min="11" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" customWidth="1"/>
+    <col min="17" max="17" width="1.85546875" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="20" width="1.7109375" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="1.140625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="3.7109375" customWidth="1"/>
     <col min="25" max="25" width="15" customWidth="1"/>
-    <col min="26" max="26" width="6.33203125" customWidth="1"/>
+    <col min="26" max="26" width="6.28515625" customWidth="1"/>
     <col min="27" max="27" width="10" customWidth="1"/>
-    <col min="28" max="28" width="8.1640625" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:30" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="2" customFormat="1"/>
+    <row r="2" spans="1:30" s="2" customFormat="1" ht="18.75">
       <c r="E2" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="2" customFormat="1" ht="18.75">
       <c r="E3" s="70" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:30" s="11" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" s="2" customFormat="1"/>
+    <row r="5" spans="1:30" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
+    <row r="6" spans="1:30" s="2" customFormat="1"/>
+    <row r="7" spans="1:30" s="2" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -18032,18 +18040,18 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-    </row>
-    <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+    </row>
+    <row r="8" spans="1:30" s="2" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -18088,15 +18096,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="102" t="s">
+    <row r="9" spans="1:30" s="2" customFormat="1">
+      <c r="A9" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="106" t="s">
+      <c r="B9" s="107"/>
+      <c r="C9" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="106"/>
+      <c r="D9" s="111"/>
       <c r="F9" s="17" t="s">
         <v>30</v>
       </c>
@@ -18141,7 +18149,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" s="2" customFormat="1">
       <c r="A10" s="21" t="s">
         <v>33</v>
       </c>
@@ -18195,7 +18203,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="21" t="s">
         <v>31</v>
       </c>
@@ -18239,7 +18247,7 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12" s="21" t="s">
         <v>34</v>
       </c>
@@ -18253,10 +18261,10 @@
       <c r="D12" s="28">
         <v>-0.10804914362693042</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="108"/>
+      <c r="F12" s="113"/>
       <c r="G12" s="75" t="s">
         <v>169</v>
       </c>
@@ -18285,7 +18293,7 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="18.75">
       <c r="A13" s="21" t="s">
         <v>17</v>
       </c>
@@ -18338,7 +18346,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="18.75">
       <c r="A14" s="21" t="s">
         <v>18</v>
       </c>
@@ -18391,7 +18399,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="18.75">
       <c r="A15" s="21" t="s">
         <v>19</v>
       </c>
@@ -18444,7 +18452,7 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
     </row>
-    <row r="16" spans="1:30" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="18.75">
       <c r="A16" s="21" t="s">
         <v>20</v>
       </c>
@@ -18491,7 +18499,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="112">
+      <c r="Y16" s="105">
         <f>H45</f>
         <v>149.99999999667759</v>
       </c>
@@ -18503,7 +18511,7 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
     </row>
-    <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="15" customHeight="1">
       <c r="A17" s="21" t="s">
         <v>21</v>
       </c>
@@ -18547,7 +18555,7 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="21" t="s">
         <v>22</v>
       </c>
@@ -18579,7 +18587,7 @@
       <c r="Y18" s="82"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="112">
+      <c r="AB18" s="105">
         <f>_PG2*Sbase</f>
         <v>150.0000000000548</v>
       </c>
@@ -18588,7 +18596,7 @@
       </c>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30">
       <c r="A19" s="21" t="s">
         <v>13</v>
       </c>
@@ -18619,7 +18627,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="113">
+      <c r="AB19" s="106">
         <f>D33*Sbase</f>
         <v>5.6329324836010395</v>
       </c>
@@ -18628,7 +18636,7 @@
       </c>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30">
       <c r="A20" s="21" t="s">
         <v>16</v>
       </c>
@@ -18655,7 +18663,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="111">
+      <c r="W20" s="104">
         <f>_PG1*Sbase</f>
         <v>50</v>
       </c>
@@ -18669,7 +18677,7 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
     </row>
-    <row r="21" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -18681,7 +18689,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="W21" s="111">
+      <c r="W21" s="104">
         <f>D32*Sbase</f>
         <v>161.83210015504307</v>
       </c>
@@ -18692,14 +18700,14 @@
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
     </row>
-    <row r="22" spans="1:30" s="7" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="107" t="s">
+    <row r="22" spans="1:30" s="7" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A22" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
@@ -18710,7 +18718,7 @@
       <c r="AA22" s="84"/>
       <c r="AB22" s="80"/>
     </row>
-    <row r="23" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>149</v>
       </c>
@@ -18733,7 +18741,7 @@
       <c r="K23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="W23" s="111">
+      <c r="W23" s="104">
         <f>H46</f>
         <v>200.00001527765878</v>
       </c>
@@ -18741,7 +18749,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A24" s="17">
         <v>0</v>
       </c>
@@ -18779,7 +18787,7 @@
       <c r="N24" s="7"/>
       <c r="W24" s="37"/>
     </row>
-    <row r="25" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A25" s="17">
         <v>0</v>
       </c>
@@ -18823,7 +18831,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A26" s="17"/>
       <c r="F26" s="6"/>
       <c r="G26" s="59" t="s">
@@ -18847,7 +18855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A27" s="43" t="s">
         <v>61</v>
       </c>
@@ -18873,7 +18881,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>115</v>
       </c>
@@ -18894,7 +18902,7 @@
       <c r="Z28" s="80"/>
       <c r="AA28" s="80"/>
     </row>
-    <row r="29" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="B29" s="30" t="s">
         <v>62</v>
       </c>
@@ -18919,7 +18927,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="32"/>
     </row>
-    <row r="30" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="B30" s="30" t="s">
         <v>63</v>
       </c>
@@ -18937,7 +18945,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="32"/>
     </row>
-    <row r="31" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="B31" s="30" t="s">
         <v>64</v>
       </c>
@@ -18955,7 +18963,7 @@
       <c r="M31" s="32"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="B32" s="30" t="s">
         <v>65</v>
       </c>
@@ -18974,7 +18982,7 @@
       <c r="N32" s="7"/>
       <c r="P32" s="8"/>
     </row>
-    <row r="33" spans="1:27" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="B33" s="30" t="s">
         <v>66</v>
       </c>
@@ -18993,7 +19001,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="1:27" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A34"/>
       <c r="B34" s="30" t="s">
         <v>67</v>
@@ -19016,7 +19024,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" s="2" customFormat="1">
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -19026,7 +19034,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" s="2" customFormat="1">
       <c r="A36" s="47"/>
       <c r="B36" s="47" t="s">
         <v>119</v>
@@ -19050,7 +19058,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
         <v>117</v>
       </c>
@@ -19085,7 +19093,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" s="2" customFormat="1">
       <c r="A38" s="47" t="s">
         <v>118</v>
       </c>
@@ -19110,7 +19118,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" s="2" customFormat="1">
       <c r="A39" s="2" t="s">
         <v>120</v>
       </c>
@@ -19149,7 +19157,7 @@
       <c r="O39" s="64"/>
       <c r="P39" s="64"/>
     </row>
-    <row r="40" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" s="2" customFormat="1">
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -19167,7 +19175,7 @@
       <c r="Q40" s="32"/>
       <c r="R40" s="32"/>
     </row>
-    <row r="41" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" s="2" customFormat="1">
       <c r="A41" s="7" t="s">
         <v>57</v>
       </c>
@@ -19178,10 +19186,10 @@
       <c r="F41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="103"/>
-    </row>
-    <row r="42" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K41" s="108"/>
+      <c r="L41" s="108"/>
+    </row>
+    <row r="42" spans="1:27" s="2" customFormat="1">
       <c r="A42" s="7" t="s">
         <v>58</v>
       </c>
@@ -19197,7 +19205,7 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" s="2" customFormat="1">
       <c r="A43" s="7"/>
       <c r="B43" s="76" t="s">
         <v>3</v>
@@ -19224,10 +19232,10 @@
       <c r="J43" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="103" t="s">
+      <c r="L43" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="M43" s="103"/>
+      <c r="M43" s="108"/>
       <c r="Y43" s="50" t="s">
         <v>9</v>
       </c>
@@ -19236,7 +19244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" s="2" customFormat="1">
       <c r="A44" s="47"/>
       <c r="B44" s="15" t="s">
         <v>126</v>
@@ -19277,7 +19285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" s="2" customFormat="1" ht="18.75">
       <c r="A45" s="76">
         <v>12</v>
       </c>
@@ -19335,7 +19343,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" s="2" customFormat="1" ht="18.75">
       <c r="A46" s="76">
         <v>13</v>
       </c>
@@ -19393,7 +19401,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="2" customFormat="1" ht="18.75">
       <c r="A47" s="15">
         <v>23</v>
       </c>
@@ -19451,7 +19459,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" s="2" customFormat="1">
       <c r="A48" s="7"/>
       <c r="B48" s="54"/>
       <c r="C48" s="54"/>
@@ -19471,7 +19479,7 @@
         <v>0.21732479005416588</v>
       </c>
     </row>
-    <row r="49" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" s="2" customFormat="1">
       <c r="A49" s="7"/>
       <c r="B49" s="54"/>
       <c r="C49" s="7"/>
@@ -19491,7 +19499,7 @@
         <v>43.464958010833179</v>
       </c>
     </row>
-    <row r="50" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" s="2" customFormat="1">
       <c r="C50" s="37"/>
       <c r="L50" s="12" t="s">
         <v>50</v>
@@ -19500,12 +19508,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" s="2" customFormat="1">
       <c r="A51" s="38" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" s="2" customFormat="1">
       <c r="A52" s="2" t="s">
         <v>141</v>
       </c>
@@ -19516,7 +19524,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30">
       <c r="A53" s="2" t="s">
         <v>141</v>
       </c>
@@ -19564,7 +19572,7 @@
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30">
       <c r="A54" s="2" t="s">
         <v>142</v>
       </c>
@@ -19603,7 +19611,7 @@
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -19640,7 +19648,7 @@
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -19672,7 +19680,7 @@
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -19704,7 +19712,7 @@
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -19736,7 +19744,7 @@
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -19768,7 +19776,7 @@
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -19800,7 +19808,7 @@
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -19832,7 +19840,7 @@
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -19864,7 +19872,7 @@
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -19896,7 +19904,7 @@
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -19928,7 +19936,7 @@
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -19960,7 +19968,7 @@
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -19992,7 +20000,7 @@
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -20024,7 +20032,7 @@
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -20056,7 +20064,7 @@
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -20088,7 +20096,7 @@
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -20120,7 +20128,7 @@
       <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -20152,7 +20160,7 @@
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -20184,7 +20192,7 @@
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -20216,7 +20224,7 @@
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -20248,7 +20256,7 @@
       <c r="AC74" s="2"/>
       <c r="AD74" s="2"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -20280,7 +20288,7 @@
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -20312,7 +20320,7 @@
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -20344,7 +20352,7 @@
       <c r="AC77" s="2"/>
       <c r="AD77" s="2"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -20376,7 +20384,7 @@
       <c r="AC78" s="2"/>
       <c r="AD78" s="2"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -20408,7 +20416,7 @@
       <c r="AC79" s="2"/>
       <c r="AD79" s="2"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -20440,7 +20448,7 @@
       <c r="AC80" s="2"/>
       <c r="AD80" s="2"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -20472,7 +20480,7 @@
       <c r="AC81" s="2"/>
       <c r="AD81" s="2"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -20504,7 +20512,7 @@
       <c r="AC82" s="2"/>
       <c r="AD82" s="2"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -20536,7 +20544,7 @@
       <c r="AC83" s="2"/>
       <c r="AD83" s="2"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -20568,7 +20576,7 @@
       <c r="AC84" s="2"/>
       <c r="AD84" s="2"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -20600,7 +20608,7 @@
       <c r="AC85" s="2"/>
       <c r="AD85" s="2"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -20632,7 +20640,7 @@
       <c r="AC86" s="2"/>
       <c r="AD86" s="2"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -20664,7 +20672,7 @@
       <c r="AC87" s="2"/>
       <c r="AD87" s="2"/>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -20696,7 +20704,7 @@
       <c r="AC88" s="2"/>
       <c r="AD88" s="2"/>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -20728,7 +20736,7 @@
       <c r="AC89" s="2"/>
       <c r="AD89" s="2"/>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -20760,7 +20768,7 @@
       <c r="AC90" s="2"/>
       <c r="AD90" s="2"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -20792,7 +20800,7 @@
       <c r="AC91" s="2"/>
       <c r="AD91" s="2"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -20824,7 +20832,7 @@
       <c r="AC92" s="2"/>
       <c r="AD92" s="2"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -20856,7 +20864,7 @@
       <c r="AC93" s="2"/>
       <c r="AD93" s="2"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -20888,7 +20896,7 @@
       <c r="AC94" s="2"/>
       <c r="AD94" s="2"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -20920,7 +20928,7 @@
       <c r="AC95" s="2"/>
       <c r="AD95" s="2"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -20952,7 +20960,7 @@
       <c r="AC96" s="2"/>
       <c r="AD96" s="2"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -20984,7 +20992,7 @@
       <c r="AC97" s="2"/>
       <c r="AD97" s="2"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -21016,7 +21024,7 @@
       <c r="AC98" s="2"/>
       <c r="AD98" s="2"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -21048,7 +21056,7 @@
       <c r="AC99" s="2"/>
       <c r="AD99" s="2"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -21080,7 +21088,7 @@
       <c r="AC100" s="2"/>
       <c r="AD100" s="2"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -21112,7 +21120,7 @@
       <c r="AC101" s="2"/>
       <c r="AD101" s="2"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -21144,7 +21152,7 @@
       <c r="AC102" s="2"/>
       <c r="AD102" s="2"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -21176,7 +21184,7 @@
       <c r="AC103" s="2"/>
       <c r="AD103" s="2"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -21208,7 +21216,7 @@
       <c r="AC104" s="2"/>
       <c r="AD104" s="2"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -21240,7 +21248,7 @@
       <c r="AC105" s="2"/>
       <c r="AD105" s="2"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -21272,7 +21280,7 @@
       <c r="AC106" s="2"/>
       <c r="AD106" s="2"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -21304,7 +21312,7 @@
       <c r="AC107" s="2"/>
       <c r="AD107" s="2"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -21336,7 +21344,7 @@
       <c r="AC108" s="2"/>
       <c r="AD108" s="2"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -21368,7 +21376,7 @@
       <c r="AC109" s="2"/>
       <c r="AD109" s="2"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -21400,7 +21408,7 @@
       <c r="AC110" s="2"/>
       <c r="AD110" s="2"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -21432,7 +21440,7 @@
       <c r="AC111" s="2"/>
       <c r="AD111" s="2"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -21464,7 +21472,7 @@
       <c r="AC112" s="2"/>
       <c r="AD112" s="2"/>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -21496,7 +21504,7 @@
       <c r="AC113" s="2"/>
       <c r="AD113" s="2"/>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -21528,7 +21536,7 @@
       <c r="AC114" s="2"/>
       <c r="AD114" s="2"/>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -21560,7 +21568,7 @@
       <c r="AC115" s="2"/>
       <c r="AD115" s="2"/>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -21592,7 +21600,7 @@
       <c r="AC116" s="2"/>
       <c r="AD116" s="2"/>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -21624,7 +21632,7 @@
       <c r="AC117" s="2"/>
       <c r="AD117" s="2"/>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -21656,7 +21664,7 @@
       <c r="AC118" s="2"/>
       <c r="AD118" s="2"/>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -21688,7 +21696,7 @@
       <c r="AC119" s="2"/>
       <c r="AD119" s="2"/>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -21720,7 +21728,7 @@
       <c r="AC120" s="2"/>
       <c r="AD120" s="2"/>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -21752,7 +21760,7 @@
       <c r="AC121" s="2"/>
       <c r="AD121" s="2"/>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -21784,7 +21792,7 @@
       <c r="AC122" s="2"/>
       <c r="AD122" s="2"/>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -21816,7 +21824,7 @@
       <c r="AC123" s="2"/>
       <c r="AD123" s="2"/>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -21848,7 +21856,7 @@
       <c r="AC124" s="2"/>
       <c r="AD124" s="2"/>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -21880,7 +21888,7 @@
       <c r="AC125" s="2"/>
       <c r="AD125" s="2"/>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -21912,7 +21920,7 @@
       <c r="AC126" s="2"/>
       <c r="AD126" s="2"/>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -21944,7 +21952,7 @@
       <c r="AC127" s="2"/>
       <c r="AD127" s="2"/>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -21976,7 +21984,7 @@
       <c r="AC128" s="2"/>
       <c r="AD128" s="2"/>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -22008,7 +22016,7 @@
       <c r="AC129" s="2"/>
       <c r="AD129" s="2"/>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -22040,7 +22048,7 @@
       <c r="AC130" s="2"/>
       <c r="AD130" s="2"/>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -22072,7 +22080,7 @@
       <c r="AC131" s="2"/>
       <c r="AD131" s="2"/>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -22104,7 +22112,7 @@
       <c r="AC132" s="2"/>
       <c r="AD132" s="2"/>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -22136,7 +22144,7 @@
       <c r="AC133" s="2"/>
       <c r="AD133" s="2"/>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -22168,7 +22176,7 @@
       <c r="AC134" s="2"/>
       <c r="AD134" s="2"/>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -22200,7 +22208,7 @@
       <c r="AC135" s="2"/>
       <c r="AD135" s="2"/>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -22232,7 +22240,7 @@
       <c r="AC136" s="2"/>
       <c r="AD136" s="2"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -22264,7 +22272,7 @@
       <c r="AC137" s="2"/>
       <c r="AD137" s="2"/>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -22296,7 +22304,7 @@
       <c r="AC138" s="2"/>
       <c r="AD138" s="2"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -22328,7 +22336,7 @@
       <c r="AC139" s="2"/>
       <c r="AD139" s="2"/>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -22385,47 +22393,47 @@
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1"/>
-    <col min="11" max="12" width="8.83203125" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
-    <col min="14" max="14" width="3.1640625" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" customWidth="1"/>
-    <col min="16" max="16" width="5.1640625" customWidth="1"/>
-    <col min="17" max="17" width="1.83203125" customWidth="1"/>
-    <col min="18" max="18" width="4.5" customWidth="1"/>
-    <col min="19" max="20" width="1.6640625" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="1.1640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" customWidth="1"/>
+    <col min="11" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" customWidth="1"/>
+    <col min="17" max="17" width="1.85546875" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="20" width="1.7109375" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="1.140625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="3.7109375" customWidth="1"/>
     <col min="25" max="25" width="15" customWidth="1"/>
-    <col min="26" max="26" width="6.33203125" customWidth="1"/>
+    <col min="26" max="26" width="6.28515625" customWidth="1"/>
     <col min="27" max="27" width="10" customWidth="1"/>
-    <col min="28" max="28" width="5.1640625" customWidth="1"/>
+    <col min="28" max="28" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:30" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="2" customFormat="1"/>
+    <row r="2" spans="1:30" s="2" customFormat="1" ht="18.75">
       <c r="E2" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="2" customFormat="1" ht="18.75">
       <c r="E3" s="70" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:30" s="11" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" s="2" customFormat="1"/>
+    <row r="5" spans="1:30" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
+    <row r="6" spans="1:30" s="2" customFormat="1"/>
+    <row r="7" spans="1:30" s="2" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -22436,18 +22444,18 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-    </row>
-    <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+    </row>
+    <row r="8" spans="1:30" s="2" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -22492,15 +22500,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="102" t="s">
+    <row r="9" spans="1:30" s="2" customFormat="1">
+      <c r="A9" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="106" t="s">
+      <c r="B9" s="107"/>
+      <c r="C9" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="106"/>
+      <c r="D9" s="111"/>
       <c r="F9" s="17" t="s">
         <v>30</v>
       </c>
@@ -22545,7 +22553,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" s="2" customFormat="1">
       <c r="A10" s="21" t="s">
         <v>33</v>
       </c>
@@ -22599,7 +22607,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="21" t="s">
         <v>31</v>
       </c>
@@ -22642,7 +22650,7 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12" s="21" t="s">
         <v>34</v>
       </c>
@@ -22655,10 +22663,10 @@
       <c r="D12" s="28">
         <v>-4.8674379873314307E-2</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="108"/>
+      <c r="F12" s="113"/>
       <c r="G12" s="75" t="s">
         <v>169</v>
       </c>
@@ -22687,7 +22695,7 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="18.75">
       <c r="A13" s="21" t="s">
         <v>17</v>
       </c>
@@ -22740,7 +22748,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="18.75">
       <c r="A14" s="21" t="s">
         <v>18</v>
       </c>
@@ -22793,7 +22801,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="18.75">
       <c r="A15" s="21" t="s">
         <v>19</v>
       </c>
@@ -22846,7 +22854,7 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
     </row>
-    <row r="16" spans="1:30" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="18.75">
       <c r="A16" s="21" t="s">
         <v>20</v>
       </c>
@@ -22905,7 +22913,7 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
     </row>
-    <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="15" customHeight="1">
       <c r="A17" s="21" t="s">
         <v>21</v>
       </c>
@@ -22949,7 +22957,7 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="21" t="s">
         <v>22</v>
       </c>
@@ -22981,7 +22989,7 @@
       <c r="Y18" s="82"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="112">
+      <c r="AB18" s="105">
         <f>_PG2*Sbase</f>
         <v>100</v>
       </c>
@@ -22990,7 +22998,7 @@
       </c>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30">
       <c r="A19" s="21" t="s">
         <v>13</v>
       </c>
@@ -23021,7 +23029,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="111">
+      <c r="AB19" s="104">
         <f>D33*Sbase</f>
         <v>68.953828933562278</v>
       </c>
@@ -23030,7 +23038,7 @@
       </c>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30">
       <c r="A20" s="21" t="s">
         <v>16</v>
       </c>
@@ -23057,7 +23065,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="111">
+      <c r="W20" s="104">
         <f>_PG1*Sbase</f>
         <v>100</v>
       </c>
@@ -23071,7 +23079,7 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
     </row>
-    <row r="21" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -23083,7 +23091,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="W21" s="111">
+      <c r="W21" s="104">
         <f>D32*Sbase</f>
         <v>68.953828925675964</v>
       </c>
@@ -23094,14 +23102,14 @@
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
     </row>
-    <row r="22" spans="1:30" s="7" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="107" t="s">
+    <row r="22" spans="1:30" s="7" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A22" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
@@ -23109,7 +23117,7 @@
       <c r="Q22" s="2"/>
       <c r="W22" s="37"/>
       <c r="Y22" s="2"/>
-      <c r="AA22" s="112">
+      <c r="AA22" s="105">
         <f>H47</f>
         <v>100.00000016579069</v>
       </c>
@@ -23117,7 +23125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>149</v>
       </c>
@@ -23140,7 +23148,7 @@
       <c r="K23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="W23" s="111">
+      <c r="W23" s="104">
         <f>H46</f>
         <v>100.00000000389517</v>
       </c>
@@ -23148,7 +23156,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A24" s="17">
         <v>0</v>
       </c>
@@ -23185,7 +23193,7 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A25" s="17">
         <v>0</v>
       </c>
@@ -23229,7 +23237,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A26" s="17"/>
       <c r="F26" s="6"/>
       <c r="G26" s="59" t="s">
@@ -23253,7 +23261,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A27" s="43" t="s">
         <v>61</v>
       </c>
@@ -23279,7 +23287,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>115</v>
       </c>
@@ -23300,7 +23308,7 @@
       <c r="Z28" s="80"/>
       <c r="AA28" s="80"/>
     </row>
-    <row r="29" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="B29" s="30" t="s">
         <v>62</v>
       </c>
@@ -23325,7 +23333,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="32"/>
     </row>
-    <row r="30" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="B30" s="30" t="s">
         <v>63</v>
       </c>
@@ -23343,7 +23351,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="32"/>
     </row>
-    <row r="31" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="B31" s="30" t="s">
         <v>64</v>
       </c>
@@ -23361,7 +23369,7 @@
       <c r="M31" s="32"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="B32" s="30" t="s">
         <v>65</v>
       </c>
@@ -23380,7 +23388,7 @@
       <c r="N32" s="7"/>
       <c r="P32" s="8"/>
     </row>
-    <row r="33" spans="1:27" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="B33" s="30" t="s">
         <v>66</v>
       </c>
@@ -23399,7 +23407,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="1:27" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A34"/>
       <c r="B34" s="30" t="s">
         <v>67</v>
@@ -23422,7 +23430,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" s="2" customFormat="1">
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -23432,7 +23440,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" s="2" customFormat="1">
       <c r="A36" s="47"/>
       <c r="B36" s="47" t="s">
         <v>119</v>
@@ -23456,7 +23464,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
         <v>117</v>
       </c>
@@ -23491,7 +23499,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" s="2" customFormat="1">
       <c r="A38" s="47" t="s">
         <v>118</v>
       </c>
@@ -23516,7 +23524,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" s="2" customFormat="1">
       <c r="A39" s="2" t="s">
         <v>120</v>
       </c>
@@ -23555,7 +23563,7 @@
       <c r="O39" s="64"/>
       <c r="P39" s="64"/>
     </row>
-    <row r="40" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" s="2" customFormat="1">
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -23573,7 +23581,7 @@
       <c r="Q40" s="32"/>
       <c r="R40" s="32"/>
     </row>
-    <row r="41" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" s="2" customFormat="1">
       <c r="A41" s="7" t="s">
         <v>57</v>
       </c>
@@ -23584,10 +23592,10 @@
       <c r="F41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="103"/>
-    </row>
-    <row r="42" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K41" s="108"/>
+      <c r="L41" s="108"/>
+    </row>
+    <row r="42" spans="1:27" s="2" customFormat="1">
       <c r="A42" s="7" t="s">
         <v>58</v>
       </c>
@@ -23603,7 +23611,7 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" s="2" customFormat="1">
       <c r="A43" s="7"/>
       <c r="B43" s="97" t="s">
         <v>3</v>
@@ -23630,10 +23638,10 @@
       <c r="J43" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="103" t="s">
+      <c r="L43" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="M43" s="103"/>
+      <c r="M43" s="108"/>
       <c r="Y43" s="50" t="s">
         <v>9</v>
       </c>
@@ -23642,7 +23650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" s="2" customFormat="1">
       <c r="A44" s="47"/>
       <c r="B44" s="15" t="s">
         <v>126</v>
@@ -23683,7 +23691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" s="2" customFormat="1" ht="18.75">
       <c r="A45" s="97">
         <v>12</v>
       </c>
@@ -23741,7 +23749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" s="2" customFormat="1" ht="18.75">
       <c r="A46" s="97">
         <v>13</v>
       </c>
@@ -23799,7 +23807,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="2" customFormat="1" ht="18.75">
       <c r="A47" s="15">
         <v>23</v>
       </c>
@@ -23857,7 +23865,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" s="2" customFormat="1">
       <c r="A48" s="7"/>
       <c r="B48" s="54"/>
       <c r="C48" s="54"/>
@@ -23877,7 +23885,7 @@
         <v>6.9538271943752505E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" s="2" customFormat="1">
       <c r="A49" s="7"/>
       <c r="B49" s="54"/>
       <c r="C49" s="7"/>
@@ -23897,7 +23905,7 @@
         <v>13.907654388750501</v>
       </c>
     </row>
-    <row r="50" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" s="2" customFormat="1">
       <c r="C50" s="37"/>
       <c r="L50" s="12" t="s">
         <v>50</v>
@@ -23906,12 +23914,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" s="2" customFormat="1">
       <c r="A51" s="38" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" s="2" customFormat="1">
       <c r="A52" s="2" t="s">
         <v>141</v>
       </c>
@@ -23922,7 +23930,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30">
       <c r="A53" s="2" t="s">
         <v>141</v>
       </c>
@@ -23970,7 +23978,7 @@
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30">
       <c r="A54" s="2" t="s">
         <v>142</v>
       </c>
@@ -24009,7 +24017,7 @@
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -24046,7 +24054,7 @@
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -24078,7 +24086,7 @@
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -24110,7 +24118,7 @@
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -24142,7 +24150,7 @@
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -24174,7 +24182,7 @@
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -24206,7 +24214,7 @@
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -24238,7 +24246,7 @@
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -24270,7 +24278,7 @@
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -24302,7 +24310,7 @@
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -24334,7 +24342,7 @@
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -24366,7 +24374,7 @@
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -24398,7 +24406,7 @@
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -24430,7 +24438,7 @@
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -24462,7 +24470,7 @@
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -24494,7 +24502,7 @@
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -24526,7 +24534,7 @@
       <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -24558,7 +24566,7 @@
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -24590,7 +24598,7 @@
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -24622,7 +24630,7 @@
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -24654,7 +24662,7 @@
       <c r="AC74" s="2"/>
       <c r="AD74" s="2"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -24686,7 +24694,7 @@
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -24718,7 +24726,7 @@
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -24750,7 +24758,7 @@
       <c r="AC77" s="2"/>
       <c r="AD77" s="2"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -24782,7 +24790,7 @@
       <c r="AC78" s="2"/>
       <c r="AD78" s="2"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -24814,7 +24822,7 @@
       <c r="AC79" s="2"/>
       <c r="AD79" s="2"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -24846,7 +24854,7 @@
       <c r="AC80" s="2"/>
       <c r="AD80" s="2"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -24878,7 +24886,7 @@
       <c r="AC81" s="2"/>
       <c r="AD81" s="2"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -24910,7 +24918,7 @@
       <c r="AC82" s="2"/>
       <c r="AD82" s="2"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -24942,7 +24950,7 @@
       <c r="AC83" s="2"/>
       <c r="AD83" s="2"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -24974,7 +24982,7 @@
       <c r="AC84" s="2"/>
       <c r="AD84" s="2"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -25006,7 +25014,7 @@
       <c r="AC85" s="2"/>
       <c r="AD85" s="2"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -25038,7 +25046,7 @@
       <c r="AC86" s="2"/>
       <c r="AD86" s="2"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -25070,7 +25078,7 @@
       <c r="AC87" s="2"/>
       <c r="AD87" s="2"/>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -25102,7 +25110,7 @@
       <c r="AC88" s="2"/>
       <c r="AD88" s="2"/>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -25134,7 +25142,7 @@
       <c r="AC89" s="2"/>
       <c r="AD89" s="2"/>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -25166,7 +25174,7 @@
       <c r="AC90" s="2"/>
       <c r="AD90" s="2"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -25198,7 +25206,7 @@
       <c r="AC91" s="2"/>
       <c r="AD91" s="2"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -25230,7 +25238,7 @@
       <c r="AC92" s="2"/>
       <c r="AD92" s="2"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -25262,7 +25270,7 @@
       <c r="AC93" s="2"/>
       <c r="AD93" s="2"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -25294,7 +25302,7 @@
       <c r="AC94" s="2"/>
       <c r="AD94" s="2"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -25326,7 +25334,7 @@
       <c r="AC95" s="2"/>
       <c r="AD95" s="2"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -25358,7 +25366,7 @@
       <c r="AC96" s="2"/>
       <c r="AD96" s="2"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -25390,7 +25398,7 @@
       <c r="AC97" s="2"/>
       <c r="AD97" s="2"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -25422,7 +25430,7 @@
       <c r="AC98" s="2"/>
       <c r="AD98" s="2"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -25454,7 +25462,7 @@
       <c r="AC99" s="2"/>
       <c r="AD99" s="2"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -25486,7 +25494,7 @@
       <c r="AC100" s="2"/>
       <c r="AD100" s="2"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -25518,7 +25526,7 @@
       <c r="AC101" s="2"/>
       <c r="AD101" s="2"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -25550,7 +25558,7 @@
       <c r="AC102" s="2"/>
       <c r="AD102" s="2"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -25582,7 +25590,7 @@
       <c r="AC103" s="2"/>
       <c r="AD103" s="2"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -25614,7 +25622,7 @@
       <c r="AC104" s="2"/>
       <c r="AD104" s="2"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -25646,7 +25654,7 @@
       <c r="AC105" s="2"/>
       <c r="AD105" s="2"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -25678,7 +25686,7 @@
       <c r="AC106" s="2"/>
       <c r="AD106" s="2"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -25710,7 +25718,7 @@
       <c r="AC107" s="2"/>
       <c r="AD107" s="2"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -25742,7 +25750,7 @@
       <c r="AC108" s="2"/>
       <c r="AD108" s="2"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -25774,7 +25782,7 @@
       <c r="AC109" s="2"/>
       <c r="AD109" s="2"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -25806,7 +25814,7 @@
       <c r="AC110" s="2"/>
       <c r="AD110" s="2"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -25838,7 +25846,7 @@
       <c r="AC111" s="2"/>
       <c r="AD111" s="2"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -25870,7 +25878,7 @@
       <c r="AC112" s="2"/>
       <c r="AD112" s="2"/>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -25902,7 +25910,7 @@
       <c r="AC113" s="2"/>
       <c r="AD113" s="2"/>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -25934,7 +25942,7 @@
       <c r="AC114" s="2"/>
       <c r="AD114" s="2"/>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -25966,7 +25974,7 @@
       <c r="AC115" s="2"/>
       <c r="AD115" s="2"/>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -25998,7 +26006,7 @@
       <c r="AC116" s="2"/>
       <c r="AD116" s="2"/>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -26030,7 +26038,7 @@
       <c r="AC117" s="2"/>
       <c r="AD117" s="2"/>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -26062,7 +26070,7 @@
       <c r="AC118" s="2"/>
       <c r="AD118" s="2"/>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -26094,7 +26102,7 @@
       <c r="AC119" s="2"/>
       <c r="AD119" s="2"/>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -26126,7 +26134,7 @@
       <c r="AC120" s="2"/>
       <c r="AD120" s="2"/>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -26158,7 +26166,7 @@
       <c r="AC121" s="2"/>
       <c r="AD121" s="2"/>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -26190,7 +26198,7 @@
       <c r="AC122" s="2"/>
       <c r="AD122" s="2"/>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -26222,7 +26230,7 @@
       <c r="AC123" s="2"/>
       <c r="AD123" s="2"/>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -26254,7 +26262,7 @@
       <c r="AC124" s="2"/>
       <c r="AD124" s="2"/>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -26286,7 +26294,7 @@
       <c r="AC125" s="2"/>
       <c r="AD125" s="2"/>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -26318,7 +26326,7 @@
       <c r="AC126" s="2"/>
       <c r="AD126" s="2"/>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -26350,7 +26358,7 @@
       <c r="AC127" s="2"/>
       <c r="AD127" s="2"/>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -26382,7 +26390,7 @@
       <c r="AC128" s="2"/>
       <c r="AD128" s="2"/>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -26414,7 +26422,7 @@
       <c r="AC129" s="2"/>
       <c r="AD129" s="2"/>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -26446,7 +26454,7 @@
       <c r="AC130" s="2"/>
       <c r="AD130" s="2"/>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -26478,7 +26486,7 @@
       <c r="AC131" s="2"/>
       <c r="AD131" s="2"/>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -26510,7 +26518,7 @@
       <c r="AC132" s="2"/>
       <c r="AD132" s="2"/>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -26542,7 +26550,7 @@
       <c r="AC133" s="2"/>
       <c r="AD133" s="2"/>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -26574,7 +26582,7 @@
       <c r="AC134" s="2"/>
       <c r="AD134" s="2"/>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -26606,7 +26614,7 @@
       <c r="AC135" s="2"/>
       <c r="AD135" s="2"/>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -26638,7 +26646,7 @@
       <c r="AC136" s="2"/>
       <c r="AD136" s="2"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -26670,7 +26678,7 @@
       <c r="AC137" s="2"/>
       <c r="AD137" s="2"/>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -26702,7 +26710,7 @@
       <c r="AC138" s="2"/>
       <c r="AD138" s="2"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -26734,7 +26742,7 @@
       <c r="AC139" s="2"/>
       <c r="AD139" s="2"/>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -26786,52 +26794,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6643CC-6DCB-CF48-A3CB-0DAA94224573}">
   <dimension ref="A1:AD140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1"/>
-    <col min="11" max="12" width="8.83203125" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
-    <col min="14" max="14" width="3.1640625" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" customWidth="1"/>
-    <col min="16" max="16" width="5.1640625" customWidth="1"/>
-    <col min="17" max="17" width="1.83203125" customWidth="1"/>
-    <col min="18" max="18" width="4.5" customWidth="1"/>
-    <col min="19" max="20" width="1.6640625" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="1.1640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" customWidth="1"/>
+    <col min="11" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" customWidth="1"/>
+    <col min="17" max="17" width="1.85546875" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="20" width="1.7109375" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="1.140625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="3.7109375" customWidth="1"/>
     <col min="25" max="25" width="15" customWidth="1"/>
-    <col min="26" max="26" width="6.33203125" customWidth="1"/>
+    <col min="26" max="26" width="6.28515625" customWidth="1"/>
     <col min="27" max="27" width="10" customWidth="1"/>
-    <col min="28" max="28" width="5.83203125" customWidth="1"/>
+    <col min="28" max="28" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:30" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="2" customFormat="1"/>
+    <row r="2" spans="1:30" s="2" customFormat="1" ht="18.75">
       <c r="E2" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="2" customFormat="1" ht="18.75">
       <c r="E3" s="70" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:30" s="11" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" s="2" customFormat="1"/>
+    <row r="5" spans="1:30" s="11" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
+    <row r="6" spans="1:30" s="2" customFormat="1"/>
+    <row r="7" spans="1:30" s="2" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -26842,18 +26850,18 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-    </row>
-    <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+    </row>
+    <row r="8" spans="1:30" s="2" customFormat="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -26898,15 +26906,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="102" t="s">
+    <row r="9" spans="1:30" s="2" customFormat="1">
+      <c r="A9" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="106" t="s">
+      <c r="B9" s="107"/>
+      <c r="C9" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="106"/>
+      <c r="D9" s="111"/>
       <c r="F9" s="17" t="s">
         <v>30</v>
       </c>
@@ -26951,7 +26959,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" s="2" customFormat="1">
       <c r="A10" s="21" t="s">
         <v>33</v>
       </c>
@@ -27005,7 +27013,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30">
       <c r="A11" s="21" t="s">
         <v>31</v>
       </c>
@@ -27048,7 +27056,7 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30">
       <c r="A12" s="21" t="s">
         <v>34</v>
       </c>
@@ -27061,10 +27069,10 @@
       <c r="D12" s="28">
         <v>-0.10129027987111079</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="108"/>
+      <c r="F12" s="113"/>
       <c r="G12" s="75" t="s">
         <v>169</v>
       </c>
@@ -27093,7 +27101,7 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="18.75">
       <c r="A13" s="21" t="s">
         <v>17</v>
       </c>
@@ -27146,7 +27154,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="18.75">
       <c r="A14" s="21" t="s">
         <v>18</v>
       </c>
@@ -27199,7 +27207,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="18.75">
       <c r="A15" s="21" t="s">
         <v>19</v>
       </c>
@@ -27252,7 +27260,7 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
     </row>
-    <row r="16" spans="1:30" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="18.75">
       <c r="A16" s="21" t="s">
         <v>20</v>
       </c>
@@ -27299,7 +27307,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="112">
+      <c r="Y16" s="105">
         <f>H45</f>
         <v>99.999997244629938</v>
       </c>
@@ -27311,7 +27319,7 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
     </row>
-    <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="15" customHeight="1">
       <c r="A17" s="21" t="s">
         <v>21</v>
       </c>
@@ -27355,7 +27363,7 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30">
       <c r="A18" s="21" t="s">
         <v>22</v>
       </c>
@@ -27387,7 +27395,7 @@
       <c r="Y18" s="82"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="112">
+      <c r="AB18" s="105">
         <f>_PG2*Sbase</f>
         <v>100</v>
       </c>
@@ -27396,7 +27404,7 @@
       </c>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30">
       <c r="A19" s="21" t="s">
         <v>13</v>
       </c>
@@ -27427,7 +27435,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="111">
+      <c r="AB19" s="104">
         <f>D33*Sbase</f>
         <v>2.3577996689664293</v>
       </c>
@@ -27436,7 +27444,7 @@
       </c>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30">
       <c r="A20" s="21" t="s">
         <v>16</v>
       </c>
@@ -27463,7 +27471,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="111">
+      <c r="W20" s="104">
         <f>_PG1*Sbase</f>
         <v>100</v>
       </c>
@@ -27477,7 +27485,7 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
     </row>
-    <row r="21" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -27489,7 +27497,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="W21" s="111">
+      <c r="W21" s="104">
         <f>D32*Sbase</f>
         <v>156.3919826890878</v>
       </c>
@@ -27500,14 +27508,14 @@
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
     </row>
-    <row r="22" spans="1:30" s="7" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="107" t="s">
+    <row r="22" spans="1:30" s="7" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A22" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
@@ -27518,7 +27526,7 @@
       <c r="AA22" s="84"/>
       <c r="AB22" s="80"/>
     </row>
-    <row r="23" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>149</v>
       </c>
@@ -27541,7 +27549,7 @@
       <c r="K23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="W23" s="111">
+      <c r="W23" s="104">
         <f>H46</f>
         <v>199.99999999707487</v>
       </c>
@@ -27549,7 +27557,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A24" s="17">
         <v>0</v>
       </c>
@@ -27586,7 +27594,7 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A25" s="17">
         <v>0</v>
       </c>
@@ -27630,7 +27638,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A26" s="17"/>
       <c r="F26" s="6"/>
       <c r="G26" s="59" t="s">
@@ -27654,7 +27662,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A27" s="43" t="s">
         <v>61</v>
       </c>
@@ -27680,7 +27688,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>115</v>
       </c>
@@ -27701,7 +27709,7 @@
       <c r="Z28" s="80"/>
       <c r="AA28" s="80"/>
     </row>
-    <row r="29" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="B29" s="30" t="s">
         <v>62</v>
       </c>
@@ -27726,7 +27734,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="32"/>
     </row>
-    <row r="30" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="B30" s="30" t="s">
         <v>63</v>
       </c>
@@ -27744,7 +27752,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="32"/>
     </row>
-    <row r="31" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="B31" s="30" t="s">
         <v>64</v>
       </c>
@@ -27762,7 +27770,7 @@
       <c r="M31" s="32"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:30" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="B32" s="30" t="s">
         <v>65</v>
       </c>
@@ -27781,7 +27789,7 @@
       <c r="N32" s="7"/>
       <c r="P32" s="8"/>
     </row>
-    <row r="33" spans="1:27" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="B33" s="30" t="s">
         <v>66</v>
       </c>
@@ -27800,7 +27808,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="1:27" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A34"/>
       <c r="B34" s="30" t="s">
         <v>67</v>
@@ -27823,7 +27831,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" s="2" customFormat="1">
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -27833,7 +27841,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" s="2" customFormat="1">
       <c r="A36" s="47"/>
       <c r="B36" s="47" t="s">
         <v>119</v>
@@ -27857,7 +27865,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
         <v>117</v>
       </c>
@@ -27892,7 +27900,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" s="2" customFormat="1">
       <c r="A38" s="47" t="s">
         <v>118</v>
       </c>
@@ -27917,7 +27925,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" s="2" customFormat="1">
       <c r="A39" s="2" t="s">
         <v>120</v>
       </c>
@@ -27956,7 +27964,7 @@
       <c r="O39" s="64"/>
       <c r="P39" s="64"/>
     </row>
-    <row r="40" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" s="2" customFormat="1">
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -27974,7 +27982,7 @@
       <c r="Q40" s="32"/>
       <c r="R40" s="32"/>
     </row>
-    <row r="41" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" s="2" customFormat="1">
       <c r="A41" s="7" t="s">
         <v>57</v>
       </c>
@@ -27985,10 +27993,10 @@
       <c r="F41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="103"/>
-    </row>
-    <row r="42" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K41" s="108"/>
+      <c r="L41" s="108"/>
+    </row>
+    <row r="42" spans="1:27" s="2" customFormat="1">
       <c r="A42" s="7" t="s">
         <v>58</v>
       </c>
@@ -28004,7 +28012,7 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" s="2" customFormat="1">
       <c r="A43" s="7"/>
       <c r="B43" s="99" t="s">
         <v>3</v>
@@ -28031,10 +28039,10 @@
       <c r="J43" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="103" t="s">
+      <c r="L43" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="M43" s="103"/>
+      <c r="M43" s="108"/>
       <c r="Y43" s="50" t="s">
         <v>9</v>
       </c>
@@ -28043,7 +28051,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" s="2" customFormat="1">
       <c r="A44" s="47"/>
       <c r="B44" s="15" t="s">
         <v>126</v>
@@ -28084,7 +28092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" s="2" customFormat="1" ht="18.75">
       <c r="A45" s="99">
         <v>12</v>
       </c>
@@ -28142,7 +28150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" s="2" customFormat="1" ht="18.75">
       <c r="A46" s="99">
         <v>13</v>
       </c>
@@ -28200,7 +28208,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="2" customFormat="1" ht="18.75">
       <c r="A47" s="15">
         <v>23</v>
       </c>
@@ -28258,7 +28266,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" s="2" customFormat="1">
       <c r="A48" s="7"/>
       <c r="B48" s="54"/>
       <c r="C48" s="54"/>
@@ -28278,7 +28286,7 @@
         <v>0.17374891179033214</v>
       </c>
     </row>
-    <row r="49" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" s="2" customFormat="1">
       <c r="A49" s="7"/>
       <c r="B49" s="54"/>
       <c r="C49" s="7"/>
@@ -28298,7 +28306,7 @@
         <v>34.749782358066426</v>
       </c>
     </row>
-    <row r="50" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" s="2" customFormat="1">
       <c r="C50" s="37"/>
       <c r="L50" s="12" t="s">
         <v>50</v>
@@ -28307,12 +28315,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" s="2" customFormat="1">
       <c r="A51" s="38" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" s="2" customFormat="1">
       <c r="A52" s="2" t="s">
         <v>141</v>
       </c>
@@ -28323,7 +28331,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30">
       <c r="A53" s="2" t="s">
         <v>141</v>
       </c>
@@ -28371,7 +28379,7 @@
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30">
       <c r="A54" s="2" t="s">
         <v>142</v>
       </c>
@@ -28410,7 +28418,7 @@
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -28447,7 +28455,7 @@
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -28479,7 +28487,7 @@
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -28511,7 +28519,7 @@
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -28543,7 +28551,7 @@
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -28575,7 +28583,7 @@
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -28607,7 +28615,7 @@
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -28639,7 +28647,7 @@
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -28671,7 +28679,7 @@
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -28703,7 +28711,7 @@
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -28735,7 +28743,7 @@
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -28767,7 +28775,7 @@
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -28799,7 +28807,7 @@
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -28831,7 +28839,7 @@
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -28863,7 +28871,7 @@
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -28895,7 +28903,7 @@
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -28927,7 +28935,7 @@
       <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -28959,7 +28967,7 @@
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -28991,7 +28999,7 @@
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -29023,7 +29031,7 @@
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -29055,7 +29063,7 @@
       <c r="AC74" s="2"/>
       <c r="AD74" s="2"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -29087,7 +29095,7 @@
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -29119,7 +29127,7 @@
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -29151,7 +29159,7 @@
       <c r="AC77" s="2"/>
       <c r="AD77" s="2"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -29183,7 +29191,7 @@
       <c r="AC78" s="2"/>
       <c r="AD78" s="2"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -29215,7 +29223,7 @@
       <c r="AC79" s="2"/>
       <c r="AD79" s="2"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -29247,7 +29255,7 @@
       <c r="AC80" s="2"/>
       <c r="AD80" s="2"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -29279,7 +29287,7 @@
       <c r="AC81" s="2"/>
       <c r="AD81" s="2"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -29311,7 +29319,7 @@
       <c r="AC82" s="2"/>
       <c r="AD82" s="2"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -29343,7 +29351,7 @@
       <c r="AC83" s="2"/>
       <c r="AD83" s="2"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -29375,7 +29383,7 @@
       <c r="AC84" s="2"/>
       <c r="AD84" s="2"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -29407,7 +29415,7 @@
       <c r="AC85" s="2"/>
       <c r="AD85" s="2"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -29439,7 +29447,7 @@
       <c r="AC86" s="2"/>
       <c r="AD86" s="2"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -29471,7 +29479,7 @@
       <c r="AC87" s="2"/>
       <c r="AD87" s="2"/>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -29503,7 +29511,7 @@
       <c r="AC88" s="2"/>
       <c r="AD88" s="2"/>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -29535,7 +29543,7 @@
       <c r="AC89" s="2"/>
       <c r="AD89" s="2"/>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -29567,7 +29575,7 @@
       <c r="AC90" s="2"/>
       <c r="AD90" s="2"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -29599,7 +29607,7 @@
       <c r="AC91" s="2"/>
       <c r="AD91" s="2"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -29631,7 +29639,7 @@
       <c r="AC92" s="2"/>
       <c r="AD92" s="2"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -29663,7 +29671,7 @@
       <c r="AC93" s="2"/>
       <c r="AD93" s="2"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -29695,7 +29703,7 @@
       <c r="AC94" s="2"/>
       <c r="AD94" s="2"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -29727,7 +29735,7 @@
       <c r="AC95" s="2"/>
       <c r="AD95" s="2"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -29759,7 +29767,7 @@
       <c r="AC96" s="2"/>
       <c r="AD96" s="2"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -29791,7 +29799,7 @@
       <c r="AC97" s="2"/>
       <c r="AD97" s="2"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -29823,7 +29831,7 @@
       <c r="AC98" s="2"/>
       <c r="AD98" s="2"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -29855,7 +29863,7 @@
       <c r="AC99" s="2"/>
       <c r="AD99" s="2"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -29887,7 +29895,7 @@
       <c r="AC100" s="2"/>
       <c r="AD100" s="2"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -29919,7 +29927,7 @@
       <c r="AC101" s="2"/>
       <c r="AD101" s="2"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -29951,7 +29959,7 @@
       <c r="AC102" s="2"/>
       <c r="AD102" s="2"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -29983,7 +29991,7 @@
       <c r="AC103" s="2"/>
       <c r="AD103" s="2"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -30015,7 +30023,7 @@
       <c r="AC104" s="2"/>
       <c r="AD104" s="2"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -30047,7 +30055,7 @@
       <c r="AC105" s="2"/>
       <c r="AD105" s="2"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -30079,7 +30087,7 @@
       <c r="AC106" s="2"/>
       <c r="AD106" s="2"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -30111,7 +30119,7 @@
       <c r="AC107" s="2"/>
       <c r="AD107" s="2"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -30143,7 +30151,7 @@
       <c r="AC108" s="2"/>
       <c r="AD108" s="2"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -30175,7 +30183,7 @@
       <c r="AC109" s="2"/>
       <c r="AD109" s="2"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -30207,7 +30215,7 @@
       <c r="AC110" s="2"/>
       <c r="AD110" s="2"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -30239,7 +30247,7 @@
       <c r="AC111" s="2"/>
       <c r="AD111" s="2"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -30271,7 +30279,7 @@
       <c r="AC112" s="2"/>
       <c r="AD112" s="2"/>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -30303,7 +30311,7 @@
       <c r="AC113" s="2"/>
       <c r="AD113" s="2"/>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -30335,7 +30343,7 @@
       <c r="AC114" s="2"/>
       <c r="AD114" s="2"/>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -30367,7 +30375,7 @@
       <c r="AC115" s="2"/>
       <c r="AD115" s="2"/>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -30399,7 +30407,7 @@
       <c r="AC116" s="2"/>
       <c r="AD116" s="2"/>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -30431,7 +30439,7 @@
       <c r="AC117" s="2"/>
       <c r="AD117" s="2"/>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -30463,7 +30471,7 @@
       <c r="AC118" s="2"/>
       <c r="AD118" s="2"/>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -30495,7 +30503,7 @@
       <c r="AC119" s="2"/>
       <c r="AD119" s="2"/>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -30527,7 +30535,7 @@
       <c r="AC120" s="2"/>
       <c r="AD120" s="2"/>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -30559,7 +30567,7 @@
       <c r="AC121" s="2"/>
       <c r="AD121" s="2"/>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -30591,7 +30599,7 @@
       <c r="AC122" s="2"/>
       <c r="AD122" s="2"/>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -30623,7 +30631,7 @@
       <c r="AC123" s="2"/>
       <c r="AD123" s="2"/>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -30655,7 +30663,7 @@
       <c r="AC124" s="2"/>
       <c r="AD124" s="2"/>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -30687,7 +30695,7 @@
       <c r="AC125" s="2"/>
       <c r="AD125" s="2"/>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -30719,7 +30727,7 @@
       <c r="AC126" s="2"/>
       <c r="AD126" s="2"/>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -30751,7 +30759,7 @@
       <c r="AC127" s="2"/>
       <c r="AD127" s="2"/>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -30783,7 +30791,7 @@
       <c r="AC128" s="2"/>
       <c r="AD128" s="2"/>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -30815,7 +30823,7 @@
       <c r="AC129" s="2"/>
       <c r="AD129" s="2"/>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -30847,7 +30855,7 @@
       <c r="AC130" s="2"/>
       <c r="AD130" s="2"/>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -30879,7 +30887,7 @@
       <c r="AC131" s="2"/>
       <c r="AD131" s="2"/>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -30911,7 +30919,7 @@
       <c r="AC132" s="2"/>
       <c r="AD132" s="2"/>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -30943,7 +30951,7 @@
       <c r="AC133" s="2"/>
       <c r="AD133" s="2"/>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -30975,7 +30983,7 @@
       <c r="AC134" s="2"/>
       <c r="AD134" s="2"/>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -31007,7 +31015,7 @@
       <c r="AC135" s="2"/>
       <c r="AD135" s="2"/>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -31039,7 +31047,7 @@
       <c r="AC136" s="2"/>
       <c r="AD136" s="2"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -31071,7 +31079,7 @@
       <c r="AC137" s="2"/>
       <c r="AD137" s="2"/>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -31103,7 +31111,7 @@
       <c r="AC138" s="2"/>
       <c r="AD138" s="2"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -31135,7 +31143,7 @@
       <c r="AC139" s="2"/>
       <c r="AD139" s="2"/>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
